--- a/data/case1/9/Plm1_1.xlsx
+++ b/data/case1/9/Plm1_1.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.40113934179210275</v>
+        <v>-0.34420358511100346</v>
       </c>
       <c r="B1" s="0">
-        <v>0.40018992989365643</v>
+        <v>0.34347514946853153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.25998012410192928</v>
+        <v>-0.26626456541364441</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25767703566576827</v>
+        <v>0.26387716285928775</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.15472856103582089</v>
+        <v>-0.16092843528110023</v>
       </c>
       <c r="B3" s="0">
-        <v>0.15414644803690081</v>
+        <v>0.16030506218652008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.1421464481810446</v>
+        <v>-0.14830506229860418</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14163846296436233</v>
+        <v>0.14775644175070113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.13563846349235398</v>
+        <v>-0.14175644217255545</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13463747137242699</v>
+        <v>0.14067205274854278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.047176472105575407</v>
+        <v>-0.092945929885447587</v>
       </c>
       <c r="B6" s="0">
-        <v>0.047144612325535906</v>
+        <v>0.092838676571668888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.027144612970825932</v>
+        <v>-0.072838677085645287</v>
       </c>
       <c r="B7" s="0">
-        <v>0.027071654865553185</v>
+        <v>0.072589236525216094</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0033299684594947365</v>
+        <v>-0.052589237044035286</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0033272636607550865</v>
+        <v>0.052386982435687734</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0026727357933769014</v>
+        <v>-0.046386982881745809</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0026739768290786614</v>
+        <v>0.046219321578270467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0086739762835321699</v>
+        <v>-0.040219322029173554</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0086726865908701711</v>
+        <v>0.040198319839930718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.013172686056240224</v>
+        <v>-0.035698320283074736</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.013174291720389419</v>
+        <v>0.035657437677937054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.019174291175367397</v>
+        <v>-0.029657438130672453</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.019212158717566652</v>
+        <v>0.029511345777819553</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.025212158175942356</v>
+        <v>-0.039151698769972931</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.025236875698841033</v>
+        <v>0.039085052535743792</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.037236875115148393</v>
+        <v>-0.027085053028626405</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.03730020890090735</v>
+        <v>0.027052895758604478</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.043300208363435289</v>
+        <v>-0.021052896219425854</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.043405737148950685</v>
+        <v>0.021027594905570268</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.049405736615226736</v>
+        <v>-0.015027595367813618</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.049642222080028997</v>
+        <v>0.015004372281703038</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.055642221554235149</v>
+        <v>-0.0090043727457951306</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.055809352852875804</v>
+        <v>0.008999999518649382</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036109221244863932</v>
+        <v>-0.067210584476178781</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096709649889647</v>
+        <v>0.067165732136619027</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096710172518801</v>
+        <v>-0.058165732553151717</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013479614537594</v>
+        <v>0.057839739869824935</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013480141874538</v>
+        <v>-0.048839740294665646</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004283323534764</v>
+        <v>0.04877795875919233</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.009004283851622219</v>
+        <v>-0.039777959185750333</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999994714160536</v>
+        <v>0.03970658401268512</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093948475167408674</v>
+        <v>-0.09394872800643661</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093635350616551705</v>
+        <v>0.093635342773897179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084635351158767413</v>
+        <v>-0.084635343205984093</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126938816219798</v>
+        <v>0.084126982846638221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126939607361358</v>
+        <v>-0.042126983469888302</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999204573868</v>
+        <v>0.041999999373315333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.081460999809237933</v>
+        <v>-0.041726123297046058</v>
       </c>
       <c r="B25" s="0">
-        <v>0.081358914613907984</v>
+        <v>0.041706005476417118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.075358915157810458</v>
+        <v>-0.035706005911045224</v>
       </c>
       <c r="B26" s="0">
-        <v>0.075233276419243822</v>
+        <v>0.035684280212006314</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.069233276965543045</v>
+        <v>-0.029684280647558126</v>
       </c>
       <c r="B27" s="0">
-        <v>0.068824600327301422</v>
+        <v>0.029622154512672694</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.062824600882802173</v>
+        <v>-0.023622154951302932</v>
       </c>
       <c r="B28" s="0">
-        <v>0.062563941049514682</v>
+        <v>0.02359265284014711</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.050563941654743871</v>
+        <v>-0.011592653314099977</v>
       </c>
       <c r="B29" s="0">
-        <v>0.050460215225085037</v>
+        <v>0.011588014442839523</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042166898073193071</v>
+        <v>-0.059433006206596861</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019045934599042</v>
+        <v>0.059087572134683519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019046570034178</v>
+        <v>-0.055342034664356277</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000709536475043</v>
+        <v>0.055236689724528887</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007102165409165</v>
+        <v>-0.0060007182902745981</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994289592351</v>
+        <v>0.0059999995514372628</v>
       </c>
     </row>
   </sheetData>
